--- a/biology/Zoologie/Bouvreuil_brun/Bouvreuil_brun.xlsx
+++ b/biology/Zoologie/Bouvreuil_brun/Bouvreuil_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhula nipalensis
 Le Bouvreuil brun (Pyrrhula nipalensis) est une espèce de passereaux de la famille des Fringillidae vivant uniquement en Asie et, plus particulièrement, en Birmanie, au Bhoutan, en Chine, en Inde, en Malaisie, au Népal, au Pakistan, à Taïwan et au Viêt Nam.
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple l'extrême nord du Pakistan, le nord de l’Inde, la chaîne himalayenne, le sud du Tibet, le sud de la Chine, Taiwan, le nord et l'ouest du Myanmar et la Malaisie Occidentale.
 </t>
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 P. n. nipalensis Hodgson, 1836 ; de l'extrême nord du Pakistan (Tchitral), du nord de l’Inde (Jammu, Cachemire, Himachal Pradesh, Uttarakhand), Népal, Sikkim, Bhoutan, Arunachal Pradesh), du sud du Tibet et du sud-ouest de la Chine (Tchamdo) ;
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se présente comme un ensemble de forêts ouvertes de feuillus sempervirents, de sapins, de chênes et de rhododendrons, de forêts mixtes, de lisières de forêts et de formations secondaires. Sur le mont Victoria, la sous-espèce P. n. victoriae est inféodée aux feuillus sempervirents couverts de mousses, de fougères épiphytes et d’orchidées pourvues d’un épais sous-bois. Dans la péninsule malaise, P. n. waterstradti fréquente surtout les conifères des genres Agathis et Dacrydium.
 </t>
@@ -611,7 +629,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il recherche les bourgeons, les boutons floraux, les chatons, les graines et les baies de différents arbres et arbustes mais il marque un goût assez prononcé pour les bourgeons de chênes (Quercus).
 </t>
